--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T11:38:34+00:00</t>
+    <t>2022-08-31T09:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T09:33:23+00:00</t>
+    <t>2022-08-31T09:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T09:56:11+00:00</t>
+    <t>2022-08-31T10:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T10:36:06+00:00</t>
+    <t>2022-08-31T12:42:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T12:42:43+00:00</t>
+    <t>2022-08-31T14:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T14:41:46+00:00</t>
+    <t>2022-08-31T20:08:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:08:39+00:00</t>
+    <t>2022-08-31T20:28:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:28:40+00:00</t>
+    <t>2022-08-31T20:44:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:44:20+00:00</t>
+    <t>2022-08-31T20:56:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T20:56:30+00:00</t>
+    <t>2022-09-03T19:58:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T19:58:19+00:00</t>
+    <t>2022-09-03T20:14:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T20:14:05+00:00</t>
+    <t>2022-09-03T21:16:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T21:16:47+00:00</t>
+    <t>2022-09-03T21:25:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-03T21:25:02+00:00</t>
+    <t>2022-09-04T09:55:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T09:55:59+00:00</t>
+    <t>2022-09-04T13:23:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T13:23:45+00:00</t>
+    <t>2022-09-04T13:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T13:33:44+00:00</t>
+    <t>2022-09-04T13:49:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T13:49:49+00:00</t>
+    <t>2022-09-04T14:40:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T14:40:23+00:00</t>
+    <t>2022-09-04T15:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T15:15:31+00:00</t>
+    <t>2022-09-04T15:19:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T15:19:44+00:00</t>
+    <t>2022-09-04T16:44:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T16:44:58+00:00</t>
+    <t>2022-09-04T16:52:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T16:52:24+00:00</t>
+    <t>2022-09-04T17:03:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T17:03:18+00:00</t>
+    <t>2022-09-04T18:26:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-04T18:26:39+00:00</t>
+    <t>2022-09-05T12:17:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T12:17:02+00:00</t>
+    <t>2022-09-05T12:37:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T12:37:44+00:00</t>
+    <t>2022-09-05T15:36:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T15:36:05+00:00</t>
+    <t>2022-09-05T19:43:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T19:43:49+00:00</t>
+    <t>2022-09-05T20:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -7,13 +7,16 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Covid19 Lab Orde" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from SNOMED CT 2" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from SNOMED CT 3" r:id="rId6" sheetId="4"/>
+    <sheet name="Include from SNOMED CT 4" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T20:02:35+00:00</t>
+    <t>2022-09-05T20:52:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,10 +99,16 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>All codes</t>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t>is-a</t>
+  </si>
+  <si>
+    <t>255594003</t>
   </si>
   <si>
     <t/>
@@ -108,7 +117,13 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/CodeSystem/cs-covid19-lab-order-status</t>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>89925002</t>
+  </si>
+  <si>
+    <t>385660001</t>
   </si>
 </sst>
 </file>
@@ -373,7 +388,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -385,28 +400,205 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>27</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>28</v>
       </c>
+      <c r="B2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>30</v>
       </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>32</v>
+      </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T20:52:48+00:00</t>
+    <t>2022-09-06T09:51:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T09:51:55+00:00</t>
+    <t>2022-09-06T10:23:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T10:23:58+00:00</t>
+    <t>2022-09-06T10:35:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T10:35:52+00:00</t>
+    <t>2022-09-06T13:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Covid19 Test Result</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -358,27 +355,27 @@
         <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -403,7 +400,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -411,29 +408,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -458,7 +455,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -466,29 +463,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -513,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -521,29 +518,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
-      </c>
       <c r="C2" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -568,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -576,29 +573,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
-      </c>
       <c r="C2" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T13:50:16+00:00</t>
+    <t>2022-09-06T13:52:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T13:52:47+00:00</t>
+    <t>2022-09-06T13:57:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T13:57:27+00:00</t>
+    <t>2022-09-06T15:51:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:51:32+00:00</t>
+    <t>2022-09-06T16:22:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T16:22:29+00:00</t>
+    <t>2022-09-07T08:47:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:47:40+00:00</t>
+    <t>2022-09-07T08:51:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:51:15+00:00</t>
+    <t>2022-09-07T09:51:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:51:43+00:00</t>
+    <t>2022-09-07T09:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:57:24+00:00</t>
+    <t>2022-09-07T13:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T13:41:33+00:00</t>
+    <t>2022-09-09T10:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T10:12:33+00:00</t>
+    <t>2022-09-09T14:31:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T14:31:53+00:00</t>
+    <t>2022-09-12T10:06:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T10:06:31+00:00</t>
+    <t>2022-09-14T11:15:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T11:15:14+00:00</t>
+    <t>2022-09-15T17:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/ValueSet/vs-covid19-lab-order-status</t>
+    <t>http://openhie.org/fhir/covid-casereporting/ValueSet/vs-covid19-lab-order-status</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T17:44:16+00:00</t>
+    <t>2022-09-15T19:52:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid-casereporting/ValueSet/vs-covid19-lab-order-status</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-covid19-lab-order-status</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T19:52:53+00:00</t>
+    <t>2022-09-16T13:03:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T13:03:17+00:00</t>
+    <t>2022-09-16T14:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T14:32:23+00:00</t>
+    <t>2022-09-16T18:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T18:53:42+00:00</t>
+    <t>2022-09-16T19:44:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -8,15 +8,12 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from SNOMED CT 2" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from SNOMED CT 3" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from SNOMED CT 4" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T19:44:32+00:00</t>
+    <t>2022-09-16T20:08:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,18 +93,27 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>concept</t>
-  </si>
-  <si>
-    <t>is-a</t>
+    <t>Concept</t>
   </si>
   <si>
     <t>255594003</t>
   </si>
   <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>89925002</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>385660001</t>
+  </si>
+  <si>
+    <t>Not done</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -115,12 +121,6 @@
   </si>
   <si>
     <t>http://snomed.info/sct</t>
-  </si>
-  <si>
-    <t>89925002</t>
-  </si>
-  <si>
-    <t>385660001</t>
   </si>
 </sst>
 </file>
@@ -385,7 +385,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -397,13 +397,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -413,13 +410,10 @@
       <c r="B2" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>29</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
         <v>30</v>
@@ -433,169 +427,20 @@
         <v>32</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
+    <row r="5">
+      <c r="A5" t="s" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s" s="2">
+      <c r="B5" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
+      <c r="B6" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T20:08:29+00:00</t>
+    <t>2022-09-19T15:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T15:24:10+00:00</t>
+    <t>2022-09-21T08:12:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T08:12:07+00:00</t>
+    <t>2022-09-21T10:21:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-21T10:21:48+00:00</t>
+    <t>2022-09-22T08:03:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-22T08:03:20+00:00</t>
+    <t>2022-10-06T11:22:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T11:22:19+00:00</t>
+    <t>2022-11-03T06:19:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-03T06:19:36+00:00</t>
+    <t>2022-11-03T06:58:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-03T06:58:58+00:00</t>
+    <t>2022-11-03T14:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-03T14:17:22+00:00</t>
+    <t>2022-11-10T06:12:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-10T06:12:01+00:00</t>
+    <t>2022-11-10T09:26:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-10T09:26:17+00:00</t>
+    <t>2022-11-11T06:34:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T06:34:01+00:00</t>
+    <t>2022-11-11T10:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T10:19:33+00:00</t>
+    <t>2022-11-11T14:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
+++ b/branches/master/ValueSet-vs-covid19-lab-order-status.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-11T14:17:22+00:00</t>
+    <t>2022-11-11T14:59:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
